--- a/Data/aiTrainingInput.xlsx
+++ b/Data/aiTrainingInput.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snegan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B43A951-6F77-4D70-9759-77D71EB56AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C7C1DB-23F1-4C45-90FD-2E417FF714BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F08FCBCB-2A5E-46C7-A426-BAFE6537B350}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F08FCBCB-2A5E-46C7-A426-BAFE6537B350}"/>
   </bookViews>
   <sheets>
     <sheet name="Production" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Transportation" sheetId="2" r:id="rId2"/>
+    <sheet name="Manufacturing" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="110">
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
   <si>
     <t>Total Carbon Emissions (kgCO2)</t>
   </si>
@@ -285,6 +289,9 @@
   </si>
   <si>
     <t>82. PVC membrane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
   </si>
   <si>
     <r>
@@ -388,12 +395,45 @@
   <si>
     <t>100. Acrylic</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Distance Traveled (km) / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Leelawadee UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>D</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fuel Consumption Rate (liters/km) / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Leelawadee UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>F</t>
+    </r>
+  </si>
+  <si>
+    <t>Raw Material / i :100</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,8 +488,28 @@
       <name val="Leelawadee UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Leelawadee UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Leelawadee UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Leelawadee UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -483,6 +543,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,7 +666,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -625,6 +697,15 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -633,8 +714,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF99CCFF"/>
       <color rgb="FFFFFF99"/>
-      <color rgb="FF99CCFF"/>
       <color rgb="FFFF7C80"/>
     </mruColors>
   </colors>
@@ -946,10 +1027,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9F03D5-0BFF-45D3-BE5A-002D0C23AFF1}">
-  <dimension ref="B1:Q102"/>
+  <dimension ref="B1:Q103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E102" sqref="E102"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -967,25 +1048,25 @@
     <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:17" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="10"/>
       <c r="Q2" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="4">
         <v>300</v>
@@ -999,7 +1080,7 @@
     </row>
     <row r="4" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="4">
         <v>2200</v>
@@ -1013,7 +1094,7 @@
     </row>
     <row r="5" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="4">
         <v>1000</v>
@@ -1027,7 +1108,7 @@
     </row>
     <row r="6" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="4">
         <v>1500</v>
@@ -1041,7 +1122,7 @@
     </row>
     <row r="7" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" s="4">
         <v>600</v>
@@ -1055,7 +1136,7 @@
     </row>
     <row r="8" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" s="4">
         <v>400</v>
@@ -1069,7 +1150,7 @@
     </row>
     <row r="9" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="4">
         <v>800</v>
@@ -1083,7 +1164,7 @@
     </row>
     <row r="10" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" s="4">
         <v>150</v>
@@ -1097,7 +1178,7 @@
     </row>
     <row r="11" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" s="4">
         <v>200</v>
@@ -1111,7 +1192,7 @@
     </row>
     <row r="12" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" s="4">
         <v>1000</v>
@@ -1125,7 +1206,7 @@
     </row>
     <row r="13" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" s="4">
         <v>300</v>
@@ -1139,7 +1220,7 @@
     </row>
     <row r="14" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" s="4">
         <v>400</v>
@@ -1153,7 +1234,7 @@
     </row>
     <row r="15" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" s="4">
         <v>2500</v>
@@ -1167,7 +1248,7 @@
     </row>
     <row r="16" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C16" s="4">
         <v>1500</v>
@@ -1181,7 +1262,7 @@
     </row>
     <row r="17" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="4">
         <v>200</v>
@@ -1195,7 +1276,7 @@
     </row>
     <row r="18" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18" s="4">
         <v>800</v>
@@ -1209,7 +1290,7 @@
     </row>
     <row r="19" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19" s="4">
         <v>500</v>
@@ -1223,7 +1304,7 @@
     </row>
     <row r="20" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" s="4">
         <v>100</v>
@@ -1237,7 +1318,7 @@
     </row>
     <row r="21" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C21" s="4">
         <v>50</v>
@@ -1251,7 +1332,7 @@
     </row>
     <row r="22" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C22" s="4">
         <v>100</v>
@@ -1265,7 +1346,7 @@
     </row>
     <row r="23" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C23" s="4">
         <v>500</v>
@@ -1279,7 +1360,7 @@
     </row>
     <row r="24" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C24" s="4">
         <v>300</v>
@@ -1293,7 +1374,7 @@
     </row>
     <row r="25" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C25" s="4">
         <v>400</v>
@@ -1307,7 +1388,7 @@
     </row>
     <row r="26" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C26" s="4">
         <v>50</v>
@@ -1321,7 +1402,7 @@
     </row>
     <row r="27" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" s="4">
         <v>20</v>
@@ -1335,7 +1416,7 @@
     </row>
     <row r="28" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C28" s="4">
         <v>30</v>
@@ -1349,7 +1430,7 @@
     </row>
     <row r="29" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C29" s="4">
         <v>100</v>
@@ -1363,7 +1444,7 @@
     </row>
     <row r="30" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C30" s="4">
         <v>200</v>
@@ -1377,7 +1458,7 @@
     </row>
     <row r="31" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C31" s="4">
         <v>150</v>
@@ -1391,7 +1472,7 @@
     </row>
     <row r="32" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C32" s="4">
         <v>100</v>
@@ -1405,7 +1486,7 @@
     </row>
     <row r="33" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C33" s="4">
         <v>50</v>
@@ -1419,7 +1500,7 @@
     </row>
     <row r="34" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C34" s="4">
         <v>100</v>
@@ -1433,7 +1514,7 @@
     </row>
     <row r="35" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C35" s="4">
         <v>50</v>
@@ -1447,7 +1528,7 @@
     </row>
     <row r="36" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36" s="4">
         <v>50</v>
@@ -1461,7 +1542,7 @@
     </row>
     <row r="37" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C37" s="4">
         <v>100</v>
@@ -1475,7 +1556,7 @@
     </row>
     <row r="38" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C38" s="4">
         <v>200</v>
@@ -1489,7 +1570,7 @@
     </row>
     <row r="39" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C39" s="4">
         <v>300</v>
@@ -1503,7 +1584,7 @@
     </row>
     <row r="40" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C40" s="4">
         <v>200</v>
@@ -1517,7 +1598,7 @@
     </row>
     <row r="41" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C41" s="4">
         <v>400</v>
@@ -1531,7 +1612,7 @@
     </row>
     <row r="42" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C42" s="4">
         <v>300</v>
@@ -1545,7 +1626,7 @@
     </row>
     <row r="43" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C43" s="4">
         <v>100</v>
@@ -1559,7 +1640,7 @@
     </row>
     <row r="44" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C44" s="4">
         <v>50</v>
@@ -1573,7 +1654,7 @@
     </row>
     <row r="45" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C45" s="4">
         <v>100</v>
@@ -1587,7 +1668,7 @@
     </row>
     <row r="46" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C46" s="4">
         <v>150</v>
@@ -1601,7 +1682,7 @@
     </row>
     <row r="47" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C47" s="4">
         <v>100</v>
@@ -1615,7 +1696,7 @@
     </row>
     <row r="48" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C48" s="4">
         <v>200</v>
@@ -1629,7 +1710,7 @@
     </row>
     <row r="49" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C49" s="4">
         <v>100</v>
@@ -1643,7 +1724,7 @@
     </row>
     <row r="50" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C50" s="4">
         <v>150</v>
@@ -1657,7 +1738,7 @@
     </row>
     <row r="51" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C51" s="4">
         <v>100</v>
@@ -1671,7 +1752,7 @@
     </row>
     <row r="52" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C52" s="4">
         <v>300</v>
@@ -1685,7 +1766,7 @@
     </row>
     <row r="53" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C53" s="4">
         <v>200</v>
@@ -1699,7 +1780,7 @@
     </row>
     <row r="54" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C54" s="4">
         <v>300</v>
@@ -1713,7 +1794,7 @@
     </row>
     <row r="55" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C55" s="4">
         <v>200</v>
@@ -1727,7 +1808,7 @@
     </row>
     <row r="56" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C56" s="4">
         <v>500</v>
@@ -1741,7 +1822,7 @@
     </row>
     <row r="57" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C57" s="4">
         <v>100</v>
@@ -1755,7 +1836,7 @@
     </row>
     <row r="58" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C58" s="4">
         <v>200</v>
@@ -1769,7 +1850,7 @@
     </row>
     <row r="59" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C59" s="4">
         <v>50</v>
@@ -1783,7 +1864,7 @@
     </row>
     <row r="60" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C60" s="4">
         <v>100</v>
@@ -1797,7 +1878,7 @@
     </row>
     <row r="61" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C61" s="4">
         <v>100</v>
@@ -1811,7 +1892,7 @@
     </row>
     <row r="62" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C62" s="4">
         <v>150</v>
@@ -1825,7 +1906,7 @@
     </row>
     <row r="63" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C63" s="4">
         <v>300</v>
@@ -1839,7 +1920,7 @@
     </row>
     <row r="64" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C64" s="4">
         <v>100</v>
@@ -1853,7 +1934,7 @@
     </row>
     <row r="65" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C65" s="4">
         <v>50</v>
@@ -1867,7 +1948,7 @@
     </row>
     <row r="66" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C66" s="4">
         <v>100</v>
@@ -1881,7 +1962,7 @@
     </row>
     <row r="67" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C67" s="4">
         <v>100</v>
@@ -1895,7 +1976,7 @@
     </row>
     <row r="68" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C68" s="4">
         <v>50</v>
@@ -1909,7 +1990,7 @@
     </row>
     <row r="69" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C69" s="4">
         <v>200</v>
@@ -1923,7 +2004,7 @@
     </row>
     <row r="70" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B70" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C70" s="4">
         <v>300</v>
@@ -1937,7 +2018,7 @@
     </row>
     <row r="71" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C71" s="4">
         <v>300</v>
@@ -1951,7 +2032,7 @@
     </row>
     <row r="72" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C72" s="4">
         <v>150</v>
@@ -1965,7 +2046,7 @@
     </row>
     <row r="73" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B73" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C73" s="4">
         <v>300</v>
@@ -1979,7 +2060,7 @@
     </row>
     <row r="74" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B74" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C74" s="4">
         <v>2500</v>
@@ -1993,7 +2074,7 @@
     </row>
     <row r="75" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C75" s="4">
         <v>600</v>
@@ -2007,7 +2088,7 @@
     </row>
     <row r="76" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C76" s="4">
         <v>300</v>
@@ -2021,7 +2102,7 @@
     </row>
     <row r="77" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C77" s="4">
         <v>400</v>
@@ -2035,7 +2116,7 @@
     </row>
     <row r="78" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B78" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C78" s="4">
         <v>300</v>
@@ -2049,7 +2130,7 @@
     </row>
     <row r="79" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B79" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C79" s="4">
         <v>300</v>
@@ -2063,7 +2144,7 @@
     </row>
     <row r="80" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B80" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C80" s="4">
         <v>50</v>
@@ -2077,7 +2158,7 @@
     </row>
     <row r="81" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C81" s="4">
         <v>200</v>
@@ -2091,7 +2172,7 @@
     </row>
     <row r="82" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B82" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C82" s="4">
         <v>50</v>
@@ -2105,7 +2186,7 @@
     </row>
     <row r="83" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B83" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C83" s="4">
         <v>300</v>
@@ -2119,7 +2200,7 @@
     </row>
     <row r="84" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B84" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C84" s="4">
         <v>200</v>
@@ -2133,7 +2214,7 @@
     </row>
     <row r="85" spans="2:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B85" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C85" s="5">
         <v>5.5</v>
@@ -2147,7 +2228,7 @@
     </row>
     <row r="86" spans="2:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B86" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C86" s="5">
         <v>5</v>
@@ -2161,7 +2242,7 @@
     </row>
     <row r="87" spans="2:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B87" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C87" s="5">
         <v>4.5</v>
@@ -2175,7 +2256,7 @@
     </row>
     <row r="88" spans="2:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B88" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C88" s="5">
         <v>4</v>
@@ -2189,7 +2270,7 @@
     </row>
     <row r="89" spans="2:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B89" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C89" s="5">
         <v>3.5</v>
@@ -2203,7 +2284,7 @@
     </row>
     <row r="90" spans="2:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B90" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C90" s="5">
         <v>4</v>
@@ -2217,7 +2298,7 @@
     </row>
     <row r="91" spans="2:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B91" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C91" s="5">
         <v>3.5</v>
@@ -2231,7 +2312,7 @@
     </row>
     <row r="92" spans="2:5" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B92" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C92" s="5">
         <v>5</v>
@@ -2245,7 +2326,7 @@
     </row>
     <row r="93" spans="2:5" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B93" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C93" s="5">
         <v>3</v>
@@ -2259,7 +2340,7 @@
     </row>
     <row r="94" spans="2:5" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B94" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C94" s="5">
         <v>2.5</v>
@@ -2273,7 +2354,7 @@
     </row>
     <row r="95" spans="2:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B95" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C95" s="5">
         <v>1.5</v>
@@ -2287,7 +2368,7 @@
     </row>
     <row r="96" spans="2:5" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B96" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C96" s="5">
         <v>3</v>
@@ -2301,7 +2382,7 @@
     </row>
     <row r="97" spans="2:5" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B97" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C97" s="5">
         <v>0.6</v>
@@ -2315,7 +2396,7 @@
     </row>
     <row r="98" spans="2:5" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B98" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C98" s="5">
         <v>7</v>
@@ -2329,7 +2410,7 @@
     </row>
     <row r="99" spans="2:5" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B99" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C99" s="5">
         <v>5</v>
@@ -2343,7 +2424,7 @@
     </row>
     <row r="100" spans="2:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B100" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C100" s="5">
         <v>7.5</v>
@@ -2357,7 +2438,7 @@
     </row>
     <row r="101" spans="2:5" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C101" s="5">
         <v>7</v>
@@ -2371,7 +2452,7 @@
     </row>
     <row r="102" spans="2:5" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B102" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C102" s="5">
         <v>6.5</v>
@@ -2381,6 +2462,12 @@
       </c>
       <c r="E102" s="11">
         <v>650</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E103">
+        <f>SUM(E3:E102)</f>
+        <v>48135</v>
       </c>
     </row>
   </sheetData>
@@ -2391,9 +2478,1757 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90DFB73B-BAF6-4073-9911-4AC308FD3185}">
+  <dimension ref="B1:L102"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="44.5703125" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>300</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="E3" s="13">
+        <v>150</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2200</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="E4" s="13">
+        <v>100</v>
+      </c>
+      <c r="F4" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="E5" s="13">
+        <v>200</v>
+      </c>
+      <c r="F5" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1500</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="13">
+        <v>120</v>
+      </c>
+      <c r="F6" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4">
+        <v>600</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="13">
+        <v>80</v>
+      </c>
+      <c r="F7" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4">
+        <v>400</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="E8" s="13">
+        <v>300</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4">
+        <v>800</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="E9" s="13">
+        <v>250</v>
+      </c>
+      <c r="F9" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4">
+        <v>150</v>
+      </c>
+      <c r="D10" s="9">
+        <v>11</v>
+      </c>
+      <c r="E10" s="13">
+        <v>500</v>
+      </c>
+      <c r="F10" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4">
+        <v>200</v>
+      </c>
+      <c r="D11" s="9">
+        <v>6</v>
+      </c>
+      <c r="E11" s="13">
+        <v>400</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="E12" s="13">
+        <v>50</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4">
+        <v>300</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="13">
+        <v>150</v>
+      </c>
+      <c r="F13" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="4">
+        <v>400</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="E14" s="13">
+        <v>100</v>
+      </c>
+      <c r="F14" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2500</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="13">
+        <v>30</v>
+      </c>
+      <c r="F15" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1500</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="E16" s="13">
+        <v>70</v>
+      </c>
+      <c r="F16" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="4">
+        <v>200</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="E17" s="13">
+        <v>60</v>
+      </c>
+      <c r="F17" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="4">
+        <v>800</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="E18" s="13">
+        <v>150</v>
+      </c>
+      <c r="F18" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="K18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="4">
+        <v>500</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="E19" s="13">
+        <v>250</v>
+      </c>
+      <c r="F19" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="4">
+        <v>100</v>
+      </c>
+      <c r="D20" s="9">
+        <v>6</v>
+      </c>
+      <c r="E20" s="13">
+        <v>400</v>
+      </c>
+      <c r="F20" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="4">
+        <v>50</v>
+      </c>
+      <c r="D21" s="9">
+        <v>5</v>
+      </c>
+      <c r="E21" s="13">
+        <v>500</v>
+      </c>
+      <c r="F21" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="4">
+        <v>100</v>
+      </c>
+      <c r="D22" s="9">
+        <v>4</v>
+      </c>
+      <c r="E22" s="13">
+        <v>350</v>
+      </c>
+      <c r="F22" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="4">
+        <v>500</v>
+      </c>
+      <c r="D23" s="9">
+        <v>3</v>
+      </c>
+      <c r="E23" s="13">
+        <v>150</v>
+      </c>
+      <c r="F23" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="4">
+        <v>300</v>
+      </c>
+      <c r="D24" s="9">
+        <v>2</v>
+      </c>
+      <c r="E24" s="13">
+        <v>300</v>
+      </c>
+      <c r="F24" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="4">
+        <v>400</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="E25" s="13">
+        <v>100</v>
+      </c>
+      <c r="F25" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="4">
+        <v>50</v>
+      </c>
+      <c r="D26" s="9">
+        <v>4</v>
+      </c>
+      <c r="E26" s="13">
+        <v>400</v>
+      </c>
+      <c r="F26" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="4">
+        <v>20</v>
+      </c>
+      <c r="D27" s="9">
+        <v>4.5</v>
+      </c>
+      <c r="E27" s="13">
+        <v>500</v>
+      </c>
+      <c r="F27" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="4">
+        <v>30</v>
+      </c>
+      <c r="D28" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="E28" s="13">
+        <v>300</v>
+      </c>
+      <c r="F28" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="4">
+        <v>100</v>
+      </c>
+      <c r="D29" s="9">
+        <v>5</v>
+      </c>
+      <c r="E29" s="13">
+        <v>250</v>
+      </c>
+      <c r="F29" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="4">
+        <v>200</v>
+      </c>
+      <c r="D30" s="9">
+        <v>4.5</v>
+      </c>
+      <c r="E30" s="13">
+        <v>400</v>
+      </c>
+      <c r="F30" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="L30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="4">
+        <v>150</v>
+      </c>
+      <c r="D31" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="E31" s="13">
+        <v>350</v>
+      </c>
+      <c r="F31" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="4">
+        <v>100</v>
+      </c>
+      <c r="D32" s="9">
+        <v>4</v>
+      </c>
+      <c r="E32" s="13">
+        <v>300</v>
+      </c>
+      <c r="F32" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="4">
+        <v>50</v>
+      </c>
+      <c r="D33" s="9">
+        <v>3</v>
+      </c>
+      <c r="E33" s="13">
+        <v>200</v>
+      </c>
+      <c r="F33" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="4">
+        <v>100</v>
+      </c>
+      <c r="D34" s="9">
+        <v>2</v>
+      </c>
+      <c r="E34" s="13">
+        <v>250</v>
+      </c>
+      <c r="F34" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="4">
+        <v>50</v>
+      </c>
+      <c r="D35" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="E35" s="13">
+        <v>300</v>
+      </c>
+      <c r="F35" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="4">
+        <v>50</v>
+      </c>
+      <c r="D36" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="E36" s="13">
+        <v>200</v>
+      </c>
+      <c r="F36" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="4">
+        <v>100</v>
+      </c>
+      <c r="D37" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="E37" s="13">
+        <v>150</v>
+      </c>
+      <c r="F37" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="4">
+        <v>200</v>
+      </c>
+      <c r="D38" s="9">
+        <v>2</v>
+      </c>
+      <c r="E38" s="13">
+        <v>250</v>
+      </c>
+      <c r="F38" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="4">
+        <v>300</v>
+      </c>
+      <c r="D39" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="E39" s="13">
+        <v>200</v>
+      </c>
+      <c r="F39" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="4">
+        <v>200</v>
+      </c>
+      <c r="D40" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="E40" s="13">
+        <v>250</v>
+      </c>
+      <c r="F40" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="4">
+        <v>400</v>
+      </c>
+      <c r="D41" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E41" s="13">
+        <v>150</v>
+      </c>
+      <c r="F41" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="4">
+        <v>300</v>
+      </c>
+      <c r="D42" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="E42" s="13">
+        <v>300</v>
+      </c>
+      <c r="F42" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="4">
+        <v>100</v>
+      </c>
+      <c r="D43" s="9">
+        <v>6</v>
+      </c>
+      <c r="E43" s="13">
+        <v>350</v>
+      </c>
+      <c r="F43" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="4">
+        <v>50</v>
+      </c>
+      <c r="D44" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="E44" s="13">
+        <v>400</v>
+      </c>
+      <c r="F44" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="4">
+        <v>100</v>
+      </c>
+      <c r="D45" s="9">
+        <v>5</v>
+      </c>
+      <c r="E45" s="13">
+        <v>450</v>
+      </c>
+      <c r="F45" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="4">
+        <v>150</v>
+      </c>
+      <c r="D46" s="9">
+        <v>4.5</v>
+      </c>
+      <c r="E46" s="13">
+        <v>300</v>
+      </c>
+      <c r="F46" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="4">
+        <v>100</v>
+      </c>
+      <c r="D47" s="9">
+        <v>4</v>
+      </c>
+      <c r="E47" s="13">
+        <v>250</v>
+      </c>
+      <c r="F47" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="4">
+        <v>200</v>
+      </c>
+      <c r="D48" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="E48" s="13">
+        <v>300</v>
+      </c>
+      <c r="F48" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="4">
+        <v>100</v>
+      </c>
+      <c r="D49" s="9">
+        <v>4</v>
+      </c>
+      <c r="E49" s="13">
+        <v>400</v>
+      </c>
+      <c r="F49" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="4">
+        <v>150</v>
+      </c>
+      <c r="D50" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="E50" s="13">
+        <v>350</v>
+      </c>
+      <c r="F50" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" s="4">
+        <v>100</v>
+      </c>
+      <c r="D51" s="9">
+        <v>5</v>
+      </c>
+      <c r="E51" s="13">
+        <v>450</v>
+      </c>
+      <c r="F51" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" s="4">
+        <v>300</v>
+      </c>
+      <c r="D52" s="9">
+        <v>3</v>
+      </c>
+      <c r="E52" s="13">
+        <v>300</v>
+      </c>
+      <c r="F52" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" s="4">
+        <v>200</v>
+      </c>
+      <c r="D53" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="E53" s="13">
+        <v>250</v>
+      </c>
+      <c r="F53" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" s="4">
+        <v>300</v>
+      </c>
+      <c r="D54" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="E54" s="13">
+        <v>200</v>
+      </c>
+      <c r="F54" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" s="4">
+        <v>200</v>
+      </c>
+      <c r="D55" s="9">
+        <v>3</v>
+      </c>
+      <c r="E55" s="13">
+        <v>350</v>
+      </c>
+      <c r="F55" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" s="4">
+        <v>500</v>
+      </c>
+      <c r="D56" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="E56" s="13">
+        <v>300</v>
+      </c>
+      <c r="F56" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" s="4">
+        <v>100</v>
+      </c>
+      <c r="D57" s="9">
+        <v>7</v>
+      </c>
+      <c r="E57" s="13">
+        <v>400</v>
+      </c>
+      <c r="F57" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" s="4">
+        <v>200</v>
+      </c>
+      <c r="D58" s="9">
+        <v>5</v>
+      </c>
+      <c r="E58" s="13">
+        <v>350</v>
+      </c>
+      <c r="F58" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" s="4">
+        <v>50</v>
+      </c>
+      <c r="D59" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="E59" s="13">
+        <v>450</v>
+      </c>
+      <c r="F59" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60" s="4">
+        <v>100</v>
+      </c>
+      <c r="D60" s="9">
+        <v>7</v>
+      </c>
+      <c r="E60" s="13">
+        <v>500</v>
+      </c>
+      <c r="F60" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" s="4">
+        <v>100</v>
+      </c>
+      <c r="D61" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="E61" s="13">
+        <v>400</v>
+      </c>
+      <c r="F61" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62" s="4">
+        <v>150</v>
+      </c>
+      <c r="D62" s="9">
+        <v>6</v>
+      </c>
+      <c r="E62" s="13">
+        <v>350</v>
+      </c>
+      <c r="F62" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63" s="4">
+        <v>300</v>
+      </c>
+      <c r="D63" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="E63" s="13">
+        <v>300</v>
+      </c>
+      <c r="F63" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" s="4">
+        <v>100</v>
+      </c>
+      <c r="D64" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="E64" s="13">
+        <v>200</v>
+      </c>
+      <c r="F64" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C65" s="4">
+        <v>50</v>
+      </c>
+      <c r="D65" s="9">
+        <v>11</v>
+      </c>
+      <c r="E65" s="13">
+        <v>500</v>
+      </c>
+      <c r="F65" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" s="4">
+        <v>100</v>
+      </c>
+      <c r="D66" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="E66" s="13">
+        <v>300</v>
+      </c>
+      <c r="F66" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C67" s="4">
+        <v>100</v>
+      </c>
+      <c r="D67" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="E67" s="13">
+        <v>200</v>
+      </c>
+      <c r="F67" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C68" s="4">
+        <v>50</v>
+      </c>
+      <c r="D68" s="9">
+        <v>4</v>
+      </c>
+      <c r="E68" s="13">
+        <v>400</v>
+      </c>
+      <c r="F68" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69" s="4">
+        <v>200</v>
+      </c>
+      <c r="D69" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="E69" s="13">
+        <v>300</v>
+      </c>
+      <c r="F69" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C70" s="4">
+        <v>300</v>
+      </c>
+      <c r="D70" s="9">
+        <v>2</v>
+      </c>
+      <c r="E70" s="13">
+        <v>250</v>
+      </c>
+      <c r="F70" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C71" s="4">
+        <v>300</v>
+      </c>
+      <c r="D71" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="E71" s="13">
+        <v>300</v>
+      </c>
+      <c r="F71" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="4">
+        <v>150</v>
+      </c>
+      <c r="D72" s="9">
+        <v>11</v>
+      </c>
+      <c r="E72" s="13">
+        <v>500</v>
+      </c>
+      <c r="F72" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C73" s="4">
+        <v>300</v>
+      </c>
+      <c r="D73" s="9">
+        <v>2</v>
+      </c>
+      <c r="E73" s="13">
+        <v>350</v>
+      </c>
+      <c r="F73" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C74" s="4">
+        <v>2500</v>
+      </c>
+      <c r="D74" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="E74" s="13">
+        <v>150</v>
+      </c>
+      <c r="F74" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C75" s="4">
+        <v>600</v>
+      </c>
+      <c r="D75" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="E75" s="13">
+        <v>200</v>
+      </c>
+      <c r="F75" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C76" s="4">
+        <v>300</v>
+      </c>
+      <c r="D76" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E76" s="13">
+        <v>300</v>
+      </c>
+      <c r="F76" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C77" s="4">
+        <v>400</v>
+      </c>
+      <c r="D77" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E77" s="13">
+        <v>250</v>
+      </c>
+      <c r="F77" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C78" s="4">
+        <v>300</v>
+      </c>
+      <c r="D78" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="E78" s="13">
+        <v>200</v>
+      </c>
+      <c r="F78" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C79" s="4">
+        <v>300</v>
+      </c>
+      <c r="D79" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="E79" s="13">
+        <v>150</v>
+      </c>
+      <c r="F79" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C80" s="4">
+        <v>50</v>
+      </c>
+      <c r="D80" s="9">
+        <v>11</v>
+      </c>
+      <c r="E80" s="13">
+        <v>500</v>
+      </c>
+      <c r="F80" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C81" s="4">
+        <v>200</v>
+      </c>
+      <c r="D81" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="E81" s="13">
+        <v>300</v>
+      </c>
+      <c r="F81" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C82" s="4">
+        <v>50</v>
+      </c>
+      <c r="D82" s="9">
+        <v>4</v>
+      </c>
+      <c r="E82" s="13">
+        <v>400</v>
+      </c>
+      <c r="F82" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C83" s="4">
+        <v>300</v>
+      </c>
+      <c r="D83" s="9">
+        <v>3</v>
+      </c>
+      <c r="E83" s="13">
+        <v>300</v>
+      </c>
+      <c r="F83" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C84" s="4">
+        <v>200</v>
+      </c>
+      <c r="D84" s="9">
+        <v>6</v>
+      </c>
+      <c r="E84" s="13">
+        <v>400</v>
+      </c>
+      <c r="F84" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="D85" s="6">
+        <v>100</v>
+      </c>
+      <c r="E85" s="13">
+        <v>450</v>
+      </c>
+      <c r="F85" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C86" s="5">
+        <v>5</v>
+      </c>
+      <c r="D86" s="6">
+        <v>100</v>
+      </c>
+      <c r="E86" s="13">
+        <v>400</v>
+      </c>
+      <c r="F86" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C87" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="D87" s="6">
+        <v>150</v>
+      </c>
+      <c r="E87" s="13">
+        <v>350</v>
+      </c>
+      <c r="F87" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C88" s="5">
+        <v>4</v>
+      </c>
+      <c r="D88" s="6">
+        <v>100</v>
+      </c>
+      <c r="E88" s="13">
+        <v>300</v>
+      </c>
+      <c r="F88" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C89" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="D89" s="6">
+        <v>200</v>
+      </c>
+      <c r="E89" s="13">
+        <v>350</v>
+      </c>
+      <c r="F89" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C90" s="5">
+        <v>4</v>
+      </c>
+      <c r="D90" s="6">
+        <v>100</v>
+      </c>
+      <c r="E90" s="13">
+        <v>400</v>
+      </c>
+      <c r="F90" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C91" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="D91" s="6">
+        <v>150</v>
+      </c>
+      <c r="E91" s="13">
+        <v>350</v>
+      </c>
+      <c r="F91" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C92" s="5">
+        <v>5</v>
+      </c>
+      <c r="D92" s="6">
+        <v>100</v>
+      </c>
+      <c r="E92" s="13">
+        <v>450</v>
+      </c>
+      <c r="F92" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C93" s="5">
+        <v>3</v>
+      </c>
+      <c r="D93" s="6">
+        <v>300</v>
+      </c>
+      <c r="E93" s="13">
+        <v>300</v>
+      </c>
+      <c r="F93" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C94" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="D94" s="6">
+        <v>200</v>
+      </c>
+      <c r="E94" s="13">
+        <v>250</v>
+      </c>
+      <c r="F94" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C95" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="D95" s="6">
+        <v>300</v>
+      </c>
+      <c r="E95" s="13">
+        <v>200</v>
+      </c>
+      <c r="F95" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C96" s="5">
+        <v>3</v>
+      </c>
+      <c r="D96" s="6">
+        <v>200</v>
+      </c>
+      <c r="E96" s="13">
+        <v>350</v>
+      </c>
+      <c r="F96" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C97" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D97" s="6">
+        <v>500</v>
+      </c>
+      <c r="E97" s="13">
+        <v>300</v>
+      </c>
+      <c r="F97" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C98" s="5">
+        <v>7</v>
+      </c>
+      <c r="D98" s="6">
+        <v>100</v>
+      </c>
+      <c r="E98" s="13">
+        <v>400</v>
+      </c>
+      <c r="F98" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C99" s="5">
+        <v>5</v>
+      </c>
+      <c r="D99" s="6">
+        <v>200</v>
+      </c>
+      <c r="E99" s="13">
+        <v>350</v>
+      </c>
+      <c r="F99" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C100" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="D100" s="6">
+        <v>50</v>
+      </c>
+      <c r="E100" s="13">
+        <v>450</v>
+      </c>
+      <c r="F100" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C101" s="5">
+        <v>7</v>
+      </c>
+      <c r="D101" s="6">
+        <v>100</v>
+      </c>
+      <c r="E101" s="13">
+        <v>500</v>
+      </c>
+      <c r="F101" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C102" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="D102" s="6">
+        <v>100</v>
+      </c>
+      <c r="E102" s="13">
+        <v>400</v>
+      </c>
+      <c r="F102" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D62C8A-DC56-4E19-AD9A-2EB9E671C3DE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
